--- a/biology/Neurosciences/Fonction_softmax/Fonction_softmax.xlsx
+++ b/biology/Neurosciences/Fonction_softmax/Fonction_softmax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mathématiques, la fonction softmax, aussi appelée fonction softargmax[2]:184 ou fonction exponentielle normalisée[3]:198, est une généralisation de la fonction logistique. Elle convertit un vecteur de K nombres réels en une distribution de probabilités sur K choix. Plus précisément, un vecteur 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mathématiques, la fonction softmax, aussi appelée fonction softargmax:184 ou fonction exponentielle normalisée:198, est une généralisation de la fonction logistique. Elle convertit un vecteur de K nombres réels en une distribution de probabilités sur K choix. Plus précisément, un vecteur 
           z
         =
           (
@@ -539,7 +551,7 @@
         )
     {\displaystyle \sigma (\mathbf {z} )}
  est égale à l'exponentielle de la composante j du vecteur z divisée par la somme des exponentielles de toutes les composantes de z.
-En théorie des probabilités, la sortie de la fonction softmax peut être utilisée pour représenter une loi catégorielle – c’est-à-dire une loi de probabilité sur K différents résultats possibles. La fonction softmax est également connue pour être utilisée dans diverses méthodes de classification en classes multiples, par exemple dans le cas de réseaux de neurones artificiels. Cette fonction est parfois considérée pour une version régulière de la fonction argmax[4] : si une composante 
+En théorie des probabilités, la sortie de la fonction softmax peut être utilisée pour représenter une loi catégorielle – c’est-à-dire une loi de probabilité sur K différents résultats possibles. La fonction softmax est également connue pour être utilisée dans diverses méthodes de classification en classes multiples, par exemple dans le cas de réseaux de neurones artificiels. Cette fonction est parfois considérée pour une version régulière de la fonction argmax : si une composante 
           z
             j
     {\displaystyle z_{j}}
@@ -595,7 +607,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Considérons un vecteur
           z
@@ -678,13 +692,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Régression logistique
-Une utilisation courante de la fonction softmax apparaît dans le champ de l'apprentissage automatique, en particulier dans la régression logistique : on associe à chaque possibilité de sortie un score, que l'on transforme en probabilité avec la fonction softmax. L'intérêt de cette fonction est qu'elle est différentiable, et s'avère donc compatible avec l'algorithme du gradient.
+          <t>Régression logistique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une utilisation courante de la fonction softmax apparaît dans le champ de l'apprentissage automatique, en particulier dans la régression logistique : on associe à chaque possibilité de sortie un score, que l'on transforme en probabilité avec la fonction softmax. L'intérêt de cette fonction est qu'elle est différentiable, et s'avère donc compatible avec l'algorithme du gradient.
 Concrètement, on a en entrée un vecteur, qui est donc une matrice colonne, notée x, de N lignes. On va la multiplier par une matrice dite « de poids » W de T lignes et de N colonnes, afin de transformer x en un vecteur de T éléments (appelés logits). La fonction softmax est utilisée pour transformer les logits dans un vecteur de probabilités, indiquant la probabilité que x appartienne à chacune des classes de sortie T.
 Par exemple, si on donne en entrée la couleur des pixels d'une image de chat, on aura pour chaque ligne de W des nombres, des « poids », propres à chaque animal, et ainsi chaque logit sera le score d'un animal. Si le score du chat est le plus important, alors la probabilité donnée par la fonction softmax que l'image est un chat sera la plus importante, d'après l'étude de la couleur des pixels. Mais on peut travailler sur d'autres caractéristiques, et ainsi obtenir d'autres probabilités, afin de déterminer l'animal sur la photo. Au fur et à mesure que l'intelligence artificielle aura d'exemples, plus la matrice de poids s'affinera, et plus le système sera performant : on parle d'apprentissage automatique.
-Classification multi-classes
-Pour faire de la classification multi-classes, on peut utiliser un perceptron dont la dernière couche contient autant de neurones que de classes. La fonction softmax est utilisée comme fonction d'activation dans l'architecture d'un perceptron multi-classe[4].
-Apprentissage par renforcement</t>
+</t>
         </is>
       </c>
     </row>
@@ -709,10 +726,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Apprentissage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification multi-classes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour faire de la classification multi-classes, on peut utiliser un perceptron dont la dernière couche contient autant de neurones que de classes. La fonction softmax est utilisée comme fonction d'activation dans l'architecture d'un perceptron multi-classe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fonction_softmax</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonction_softmax</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Lien avec la physique statistique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En physique statistique, la distribution de Maxwell est essentiellement une application de la fonction softmax aux niveaux d'énergie Ei possibles :
           P
